--- a/biology/Botanique/Ipomoea_eriocarpa/Ipomoea_eriocarpa.xlsx
+++ b/biology/Botanique/Ipomoea_eriocarpa/Ipomoea_eriocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea eriocarpa est une espèce de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales et subtropicales de l'Ancien Monde. Ce sont des plantes herbacées annuelles, à port grimpant ou prostré, aux tiges volubiles, pubescentes ou hispides, pouvant atteindre 2 mètres de long. Les fleurs, petites (7 à 9 mm de diamètre), à corolle campanulée, sont roses à violacées. Les feuilles sont consommées comme un légume cuit en Afrique et en Inde. La plante, qui se multiplie exclusivement par graines, est une mauvaise herbe des cultures très fréquente en Afrique dans la zone sahélo-soudanienne.
 </t>
@@ -511,13 +523,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (15 décembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 décembre 2019) :
 Convolvulus eriocarpus (R. Br.) Spreng.
 Convolvulus hispidus Vahl
 Convolvulus sessiliflorus (Roth) Spreng.
-Ipomoea hispida (Vahl) Roemer &amp; Schultes[2]
+Ipomoea hispida (Vahl) Roemer &amp; Schultes
 Ipomoea horsefieldiana Miq.
 Ipomoea ligulata Bojer
 Ipomoea sessiliflora Roth
